--- a/biology/Botanique/Rhaphidophora_australasica/Rhaphidophora_australasica.xlsx
+++ b/biology/Botanique/Rhaphidophora_australasica/Rhaphidophora_australasica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhaphidophora australasica est une espèce de la famille des Araceae endémique du Queensland septentrional en Australie.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rhaphidophora australasica est une plante grimpante subtropicale avec de longues tiges qui restent nues à une certaine distance du sol[1],[2]. Elle s'accroche aux autres plantes et aux troncs d'arbres grâce à ses racines poussant le long des tiges[3]. Les tiges sont gris-vertes et d'un diamètre de 1,5 cm. Elle peut atteindre une taille de 10 à 20 m[4].
-Les feuilles de R. australasicasont grandes et se trouvent portées par de longues tiges ailées. Les feuilles sont glabres et alternes[5]. En général, la taille des limbes est de 25 à 38 cm de long pour une largeur de 7 à 13 cm mais elles peuvent pour les proportions maximales s'étendre de 13 à 50 cm de long et de 4 à 15 cm[5]. Les pétioles sont de 17 à 23 cm[5]. Comme de nombreuses Aracées, les capitules fleuris de ces plantes, ressemblent à des arums, apparaissant en été, sont solitaires et visibles. L'épi atteint 8 cm de long dans le fruit. Le spathe de la tête tombe facilement, en révélant l'épi[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rhaphidophora australasica est une plante grimpante subtropicale avec de longues tiges qui restent nues à une certaine distance du sol,. Elle s'accroche aux autres plantes et aux troncs d'arbres grâce à ses racines poussant le long des tiges. Les tiges sont gris-vertes et d'un diamètre de 1,5 cm. Elle peut atteindre une taille de 10 à 20 m.
+Les feuilles de R. australasicasont grandes et se trouvent portées par de longues tiges ailées. Les feuilles sont glabres et alternes. En général, la taille des limbes est de 25 à 38 cm de long pour une largeur de 7 à 13 cm mais elles peuvent pour les proportions maximales s'étendre de 13 à 50 cm de long et de 4 à 15 cm. Les pétioles sont de 17 à 23 cm. Comme de nombreuses Aracées, les capitules fleuris de ces plantes, ressemblent à des arums, apparaissant en été, sont solitaires et visibles. L'épi atteint 8 cm de long dans le fruit. Le spathe de la tête tombe facilement, en révélant l'épi.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rhaphidophora australasica est une plante endémique du Queensland septentrional et des zones côtières environnantes en Australie[1],[3].
-Bien que son habitat naturel soit la forêt tropicale du Queensland, elle s'adapte très bien aux intérieurs des habitations[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rhaphidophora australasica est une plante endémique du Queensland septentrional et des zones côtières environnantes en Australie,.
+Bien que son habitat naturel soit la forêt tropicale du Queensland, elle s'adapte très bien aux intérieurs des habitations.
 </t>
         </is>
       </c>
@@ -575,15 +591,15 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rhaphidophora australasica F.M.Bailey[6].
-Rhaphidophora australasica a au moins deux synonymes[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Rhaphidophora australasica F.M.Bailey.
+Rhaphidophora australasica a au moins deux synonymes :
 Rhaphidophora hollrungii Engl.
 Rhaphidophora iboensis K.Krause
-Le botaniste britannique Peter C. Boyce place cette espèce dans avec Rhaphidophora guamensis est selon lui, placé dans le « Groupe Spathacea (Hollrungii) » (un de ses 9 groupes du genre Rhaphidophora) avec d'autres espèces présentes à Guam, en Australie, Nouvelle-Guinée et Micronésie comme Rhaphidophora guamensis, Rhaphidophora spathacea, Rhaphidophora versteegii et Rhaphidophora waria)[7].
-Étymologie
-L'étymologie du nom générique et de l'épithète spécifique de Rhaphidophora australasica est la suivante : Rhaphidophora vient du grec, rhaphis qui signifie «aiguille» et du grec phoros signifiant «portant», car le fruit porte de nombreuses pointes en forme d'aiguilles ; australasica est une terminologie botanique latine pour australienne ou australasienne[3].
+Le botaniste britannique Peter C. Boyce place cette espèce dans avec Rhaphidophora guamensis est selon lui, placé dans le « Groupe Spathacea (Hollrungii) » (un de ses 9 groupes du genre Rhaphidophora) avec d'autres espèces présentes à Guam, en Australie, Nouvelle-Guinée et Micronésie comme Rhaphidophora guamensis, Rhaphidophora spathacea, Rhaphidophora versteegii et Rhaphidophora waria).
 </t>
         </is>
       </c>
@@ -609,12 +625,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom générique et de l'épithète spécifique de Rhaphidophora australasica est la suivante : Rhaphidophora vient du grec, rhaphis qui signifie «aiguille» et du grec phoros signifiant «portant», car le fruit porte de nombreuses pointes en forme d'aiguilles ; australasica est une terminologie botanique latine pour australienne ou australasienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rhaphidophora_australasica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rhaphidophora_australasica</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Médecine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En médecine aborigène, cette plante est utilisée, au moyen d'une décoction préparée à partir de feuilles et de racines, pour se débarrasser des douleurs rhumatismales. Cependant, la décoction provoque une sensation de démangeaison[1]. Il ne semble pas y avoir en 2023 d'étude pharmacologique sur cette plante[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En médecine aborigène, cette plante est utilisée, au moyen d'une décoction préparée à partir de feuilles et de racines, pour se débarrasser des douleurs rhumatismales. Cependant, la décoction provoque une sensation de démangeaison. Il ne semble pas y avoir en 2023 d'étude pharmacologique sur cette plante.
 </t>
         </is>
       </c>
